--- a/public/template/import_issue_tpl.xlsx
+++ b/public/template/import_issue_tpl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>主题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,9 +85,6 @@
   <si>
     <t>1d 4h</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/15/2019</t>
   </si>
   <si>
     <t>子任务</t>
@@ -167,11 +164,11 @@
 2. 每次导入都属同一事务，只要有一个问题数据格式校验失败，其他问题都不会被导入；
 3. 每条记录的主题列和类型列都是必填的，子任务类型问题需填写父级主题至父级任务列；
 4. 若该问题为子任务类型，需填写“父级任务”列，该列值可以是该文档内的标准问题的主题 或 系统内已创建标准类型问题的主题；
-5. 表头字段都应在该项目字段配置列表中是可见，另外还包括：类型、状态、父级任务、报告者、创建时间、解决者、解决时间、关闭者和关闭时间，文件类型字段无法导入；
+5. 表头字段都应在该项目字段配置列表中是可见，另外还包括：类型、状态、父级任务、报告者、创建时间、更新时间、解决者、解决时间、关闭者和关闭时间，不支持文件类型的字段导入；
 6. 对于多可选值字段，请用逗号(半角)将其值隔开，比如：AAA,BBB,CCC；
 7. 时间日期格式字段支持的形式有：YYYY-MM-DD HH:MM 或 YYYY/MM/DD HH:MM, 比如：2019/09/15 22:00 或 2019-09-15 22:00；
 8. 时间跟踪字段支持的形式如：3w 4d 5h；
-9. 不支持问题链接的导入，不支持问题备注和工作日志的导入；</t>
+9. 不支持问题链接的导入，不支持问题备注和问题工作日志的导入；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -179,8 +176,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -279,7 +277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,8 +293,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -306,13 +308,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -321,8 +317,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -331,6 +335,8 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -338,6 +344,8 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -669,69 +677,70 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="9" max="10" width="17.83203125" style="3"/>
+    <col min="9" max="9" width="17.83203125" style="13"/>
+    <col min="10" max="10" width="17.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="151" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>35</v>
+      <c r="K2" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -750,64 +759,64 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10">
         <v>43723</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4">
+        <v>25</v>
+      </c>
+      <c r="I4" s="10">
         <v>43723</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
@@ -816,16 +825,16 @@
         <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="10">
+        <v>43723</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -837,7 +846,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
     </row>
@@ -850,7 +859,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
     </row>
@@ -863,7 +872,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
     </row>
@@ -876,7 +885,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
     </row>
@@ -889,7 +898,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
     </row>
@@ -902,7 +911,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
     </row>
@@ -915,7 +924,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
     </row>
@@ -928,7 +937,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
     </row>
@@ -941,7 +950,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
     </row>
@@ -954,7 +963,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
     </row>
@@ -967,7 +976,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
     </row>
@@ -980,7 +989,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
     </row>
@@ -993,7 +1002,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
     </row>
@@ -1006,7 +1015,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
     </row>
@@ -1019,7 +1028,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
     </row>
@@ -1032,7 +1041,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
     </row>
@@ -1045,7 +1054,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
     </row>
@@ -1058,7 +1067,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
     </row>
@@ -1071,7 +1080,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
     </row>
@@ -1084,7 +1093,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
     </row>
@@ -1097,7 +1106,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
     </row>
@@ -1110,7 +1119,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
     </row>
@@ -1123,7 +1132,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
     </row>
@@ -1136,7 +1145,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
     </row>
@@ -1149,7 +1158,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
     </row>
@@ -1162,7 +1171,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
     </row>
@@ -1175,7 +1184,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
     </row>

--- a/public/template/import_issue_tpl.xlsx
+++ b/public/template/import_issue_tpl.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
@@ -178,7 +178,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -311,20 +311,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -684,24 +684,24 @@
   <cols>
     <col min="1" max="1" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="13"/>
+    <col min="9" max="9" width="17.83203125" style="11"/>
     <col min="10" max="10" width="17.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="151" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
@@ -728,7 +728,7 @@
       <c r="H2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -761,7 +761,7 @@
       <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>43723</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -794,7 +794,7 @@
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>43723</v>
       </c>
       <c r="J4" s="4"/>
@@ -827,7 +827,7 @@
       <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>43723</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -846,7 +846,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
     </row>
@@ -859,7 +859,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
     </row>
@@ -872,7 +872,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
     </row>
@@ -885,7 +885,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
     </row>
@@ -898,7 +898,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
     </row>
@@ -911,7 +911,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
     </row>
@@ -924,7 +924,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
     </row>
@@ -937,7 +937,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
     </row>
@@ -950,7 +950,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
     </row>
@@ -963,7 +963,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
     </row>
@@ -976,7 +976,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
     </row>
@@ -989,7 +989,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
     </row>
@@ -1028,7 +1028,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
     </row>
@@ -1041,7 +1041,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
     </row>
@@ -1054,7 +1054,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="12"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
     </row>
@@ -1080,7 +1080,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
     </row>
@@ -1106,7 +1106,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
     </row>
@@ -1119,7 +1119,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
     </row>
@@ -1158,7 +1158,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
     </row>
@@ -1171,7 +1171,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
     </row>

--- a/public/template/import_issue_tpl.xlsx
+++ b/public/template/import_issue_tpl.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>经办人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>期望完成时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
 7. 时间日期格式字段支持的形式有：YYYY-MM-DD HH:MM 或 YYYY/MM/DD HH:MM, 比如：2019/09/15 22:00 或 2019-09-15 22:00；
 8. 时间跟踪字段支持的形式如：3w 4d 5h；
 9. 不支持问题链接的导入，不支持问题备注和问题工作日志的导入；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +327,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -337,15 +345,7 @@
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -690,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="151" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -726,115 +726,115 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8">
         <v>43723</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="8">
         <v>43723</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="8">
         <v>43723</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11">
